--- a/Desktop/JOE/Digestion/POW 041224/RB & IQC.xlsx
+++ b/Desktop/JOE/Digestion/POW 041224/RB & IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\POW 041224\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77808C85-F93C-4AFF-9A29-7B04E8C1CA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FB74F0-2288-4F13-B334-F61D1721D2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -959,110 +959,23 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1072,24 +985,111 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3923,7 +3923,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>/ T3</a:t>
+            <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -4007,18 +4007,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5018,7 +5018,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
@@ -5034,101 +5034,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="58" t="str">
+      <c r="B3" s="62"/>
+      <c r="C3" s="69" t="str">
         <f>Form!B2</f>
         <v>IQBAL NORDIYANA</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="59">
+      <c r="B4" s="62"/>
+      <c r="C4" s="70">
         <f>Form!B3</f>
         <v>45630</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="63" t="str">
+      <c r="B7" s="62"/>
+      <c r="C7" s="74" t="str">
         <f>Form!B5</f>
         <v>XP 205DR</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5159,31 +5159,31 @@
         <f>Form!B7</f>
         <v>1123090</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="59" t="str">
         <f>Form!B8</f>
         <v>K55266610321</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -5193,26 +5193,26 @@
         <f>Form!B9</f>
         <v>4122020</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5230,11 +5230,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5242,39 +5242,39 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="str">
+      <c r="A19" s="33" t="str">
         <f>Form!G27</f>
         <v>Sampel IQC :     ☑ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="32" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="str">
+      <c r="E20" s="76"/>
+      <c r="F20" s="76" t="str">
         <f>Form!B13</f>
         <v>IQC POW BLK 041224</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="14" t="s">
         <v>20</v>
       </c>
@@ -5284,9 +5284,9 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="71"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
@@ -5294,56 +5294,56 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="1"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="38" t="s">
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="32" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33" t="str">
+      <c r="E25" s="76"/>
+      <c r="F25" s="76" t="str">
         <f>Form!B16</f>
         <v>IQC POW A 041224</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="14" t="s">
         <v>20</v>
       </c>
@@ -5353,9 +5353,9 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -5363,56 +5363,56 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="70" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="1"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="67" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="38" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="32" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33" t="str">
+      <c r="E30" s="76"/>
+      <c r="F30" s="76" t="str">
         <f>Form!B19</f>
         <v>IQC POW B 041224</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="14" t="s">
         <v>20</v>
       </c>
@@ -5422,9 +5422,9 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="71"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
       <c r="F32" s="1"/>
@@ -5432,34 +5432,34 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="70" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="1"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="67" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="38" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -5473,18 +5473,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="G34:H34"/>
@@ -5501,30 +5513,18 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
